--- a/VersionRecords/Version Brand/版本Bug和特性计划及评审表Brand.xlsx
+++ b/VersionRecords/Version Brand/版本Bug和特性计划及评审表Brand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="27630" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="需要修改的配置文件" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>配置汇总</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,38 +79,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>配置同步房源的线程数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、renter、renterPC、lts</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、lts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>systemconfig.properties</t>
-  </si>
-  <si>
-    <t>配置同步房源的线程数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.TEM_IMAGE_PATH=/data/script/tmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为存放房源封面的临时路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生产环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杨斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brand</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS、renter、renterPC、lts</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -175,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -227,16 +265,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,17 +312,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,130 +618,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="9" style="9"/>
     <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
+      <c r="A5" s="11">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="7"/>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -686,7 +788,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4">
